--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/maytus_udomlerd_mail_kmutt_ac_th/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{2EF91B73-9FFA-468E-A7A2-9B01A83A135D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4AFBCA4C-0BD3-4C7F-98D3-AB00E1458562}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{2EF91B73-9FFA-468E-A7A2-9B01A83A135D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E313266-4ED8-4D5C-BFB0-A752609FE2F3}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Param1</t>
   </si>
@@ -294,16 +294,19 @@
     <t>j3</t>
   </si>
   <si>
-    <t>signed_x</t>
-  </si>
-  <si>
-    <t>signed_y</t>
-  </si>
-  <si>
-    <t>signed_z</t>
-  </si>
-  <si>
-    <t>signed_rotz</t>
+    <t>signed_q1</t>
+  </si>
+  <si>
+    <t>signed_q2</t>
+  </si>
+  <si>
+    <t>signed_q3</t>
+  </si>
+  <si>
+    <t>signed_q4</t>
+  </si>
+  <si>
+    <t>feedback</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +480,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,24 +502,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,7 +827,7 @@
   <dimension ref="B2:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,8 +843,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1146,16 +1152,16 @@
       <c r="T8" s="4"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="2:20" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="11" t="s">
         <v>55</v>
       </c>
@@ -1180,10 +1186,10 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
@@ -1219,8 +1225,8 @@
       <c r="L13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
@@ -1232,11 +1238,13 @@
       <c r="D14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="H14" s="13" t="s">
         <v>82</v>
       </c>
@@ -1269,12 +1277,14 @@
       <c r="D15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>86</v>
       </c>
@@ -1298,11 +1308,11 @@
   <mergeCells count="7">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/maytus_udomlerd_mail_kmutt_ac_th/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{2EF91B73-9FFA-468E-A7A2-9B01A83A135D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E313266-4ED8-4D5C-BFB0-A752609FE2F3}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="8_{2EF91B73-9FFA-468E-A7A2-9B01A83A135D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF2347B7-7898-4D5A-ADAA-E652BC065EAD}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
   <si>
     <t>Param1</t>
   </si>
@@ -87,9 +87,6 @@
     <t>CRC_L</t>
   </si>
   <si>
-    <t>Ping Mode</t>
-  </si>
-  <si>
     <t>jog joint</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>0x07</t>
   </si>
   <si>
-    <t>0x0D</t>
-  </si>
-  <si>
     <t>ping mode</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>bit 1</t>
   </si>
   <si>
-    <t>enable_bit</t>
-  </si>
-  <si>
     <t>num join/signed</t>
   </si>
   <si>
@@ -264,12 +255,6 @@
     <t>data_5</t>
   </si>
   <si>
-    <t>data_6</t>
-  </si>
-  <si>
-    <t>data_7</t>
-  </si>
-  <si>
     <t>length = num(Param) - 4</t>
   </si>
   <si>
@@ -307,13 +292,163 @@
   </si>
   <si>
     <t>feedback</t>
+  </si>
+  <si>
+    <t>status Mode</t>
+  </si>
+  <si>
+    <t>data_0</t>
+  </si>
+  <si>
+    <t>Gripper grip</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>Gripper_state</t>
+  </si>
+  <si>
+    <t>LOW -&gt; HIGH</t>
+  </si>
+  <si>
+    <t>HIGH -&gt; LOW</t>
+  </si>
+  <si>
+    <t>Acknowledge state</t>
+  </si>
+  <si>
+    <t>0xAx</t>
+  </si>
+  <si>
+    <t>Error package</t>
+  </si>
+  <si>
+    <t>0xEE</t>
+  </si>
+  <si>
+    <t>error_info</t>
+  </si>
+  <si>
+    <t>special byte</t>
+  </si>
+  <si>
+    <t>position of joint x (encoder value)</t>
+  </si>
+  <si>
+    <t>position of joint 1 (encoder value)</t>
+  </si>
+  <si>
+    <t>position of joint 2 (encoder value)</t>
+  </si>
+  <si>
+    <t>position of joint 3 (encoder value)</t>
+  </si>
+  <si>
+    <t>position of joint 4 (encoder value)</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>note :</t>
+  </si>
+  <si>
+    <t>x คือ instruction</t>
+  </si>
+  <si>
+    <t>จะส่ง ack ทุกครั้งที verify command และสิ้นสุดการทำงานใน Sequence นั้นๆ</t>
+  </si>
+  <si>
+    <t>error package</t>
+  </si>
+  <si>
+    <t>error_type</t>
+  </si>
+  <si>
+    <t>information of error</t>
+  </si>
+  <si>
+    <t>CRC_H</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Ack form state 1</t>
+  </si>
+  <si>
+    <t>Ack form state 2</t>
+  </si>
+  <si>
+    <t>Ack form state 3</t>
+  </si>
+  <si>
+    <t>Type of ack</t>
+  </si>
+  <si>
+    <t>Ack form state 4</t>
+  </si>
+  <si>
+    <t>Ack form state 5</t>
+  </si>
+  <si>
+    <t>Ack form state 6</t>
+  </si>
+  <si>
+    <t>Ack form state 7</t>
+  </si>
+  <si>
+    <t>Ack form state 8</t>
+  </si>
+  <si>
+    <t>Package from low-level to high-level</t>
+  </si>
+  <si>
+    <t>Package from high-level to low-level</t>
+  </si>
+  <si>
+    <t>Typer of error</t>
+  </si>
+  <si>
+    <t>infoe of error</t>
+  </si>
+  <si>
+    <t>1 (Package error)</t>
+  </si>
+  <si>
+    <t>1 : invalid length</t>
+  </si>
+  <si>
+    <t>2 : CRC fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,8 +462,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +519,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -438,15 +604,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,30 +758,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,6 +773,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
-  <dimension ref="B2:T15"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,484 +1261,1637 @@
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="18" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="8" t="s">
+    <row r="1" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61"/>
+      <c r="B1" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="63"/>
+    </row>
+    <row r="2" spans="1:21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="U2" s="63"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="63"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="63"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="63"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="63"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="63"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="63"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="63"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="63"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="63"/>
+    </row>
+    <row r="12" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="63"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="2:20" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="L13" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="63"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="18">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="63"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="18">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="63"/>
+    </row>
+    <row r="16" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="65"/>
+    </row>
+    <row r="17" spans="1:21" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="51"/>
+    </row>
+    <row r="18" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="63"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="36"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="63"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="18">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="63"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="18">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="18" t="s">
+      <c r="D21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>0</v>
+      </c>
+      <c r="R21" s="39">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="63"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="18">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="63"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="63"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="6">
+        <v>7</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="J24" s="40">
+        <v>0</v>
+      </c>
+      <c r="K24" s="40">
+        <v>0</v>
+      </c>
+      <c r="L24" s="40">
+        <v>0</v>
+      </c>
+      <c r="M24" s="40">
+        <v>0</v>
+      </c>
+      <c r="N24" s="40">
+        <v>0</v>
+      </c>
+      <c r="O24" s="40">
+        <v>0</v>
+      </c>
+      <c r="P24" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>0</v>
+      </c>
+      <c r="R24" s="39">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="63"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="63"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="63"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="63"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="63"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" s="67"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="63"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="N30" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="63"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="63"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="63"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="63"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="63"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="60"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="63"/>
+    </row>
+    <row r="37" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="66"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="63"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="63"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="63"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="63"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="29">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="I21:J23"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="M21:N23"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkmuttacth-my.sharepoint.com/personal/maytus_udomlerd_mail_kmutt_ac_th/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="8_{2EF91B73-9FFA-468E-A7A2-9B01A83A135D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF2347B7-7898-4D5A-ADAA-E652BC065EAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0991520-B349-4B98-8D3B-3AF8DC50C645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-27000" yWindow="4845" windowWidth="21600" windowHeight="11430" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
   <si>
     <t>Param1</t>
   </si>
@@ -773,38 +773,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,71 +790,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -923,9 +842,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +850,90 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,36 +1278,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="63"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="63"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="5">
@@ -1416,10 +1416,10 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="63"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1473,10 +1473,10 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="63"/>
+      <c r="U4" s="36"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1530,10 +1530,10 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="63"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1587,10 +1587,10 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="63"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="F7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1644,10 +1644,10 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="31">
+      <c r="A9" s="34"/>
+      <c r="B9" s="22">
         <v>7</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1720,7 +1720,7 @@
       <c r="F9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="21" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="1">
@@ -1758,63 +1758,63 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="36"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="63"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="36"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="63"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="36"/>
     </row>
     <row r="12" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="10" t="s">
         <v>53</v>
       </c>
@@ -1839,20 +1839,20 @@
       <c r="L12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="63"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="36"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="18">
         <v>1</v>
       </c>
@@ -1862,38 +1862,38 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="K13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="63"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="18">
         <v>3</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
+      <c r="F14" s="68"/>
       <c r="G14" s="15" t="s">
         <v>85</v>
       </c>
@@ -1919,10 +1919,10 @@
       <c r="J14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="20" t="s">
         <v>62</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1931,16 +1931,16 @@
       <c r="N14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="63"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18">
         <v>4</v>
       </c>
@@ -1950,11 +1950,11 @@
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="66">
+        <v>0</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="14" t="s">
         <v>85</v>
       </c>
@@ -1976,68 +1976,68 @@
       <c r="N15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="63"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="36"/>
     </row>
     <row r="16" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="65"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="38"/>
     </row>
     <row r="17" spans="1:21" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="51"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="31"/>
     </row>
     <row r="18" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="17" t="s">
         <v>3</v>
       </c>
@@ -2089,10 +2089,10 @@
       <c r="T18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="63"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="18">
         <v>1</v>
       </c>
@@ -2108,36 +2108,36 @@
       <c r="F19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35" t="s">
+      <c r="H19" s="80"/>
+      <c r="I19" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35" t="s">
+      <c r="J19" s="80"/>
+      <c r="K19" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35" t="s">
+      <c r="L19" s="80"/>
+      <c r="M19" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35" t="s">
+      <c r="N19" s="80"/>
+      <c r="O19" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="35" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="36"/>
+      <c r="R19" s="80"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="63"/>
+      <c r="U19" s="36"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="18">
         <v>3</v>
       </c>
@@ -2153,26 +2153,26 @@
       <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="63"/>
+      <c r="U20" s="36"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="18">
         <v>4</v>
       </c>
@@ -2188,40 +2188,40 @@
       <c r="F21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41" t="s">
+      <c r="J21" s="74"/>
+      <c r="K21" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="74"/>
+      <c r="M21" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="39" t="s">
+      <c r="N21" s="74"/>
+      <c r="O21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="39">
-        <v>0</v>
-      </c>
-      <c r="R21" s="39">
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="26">
         <v>0</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="63"/>
+      <c r="U21" s="36"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="18">
         <v>5</v>
       </c>
@@ -2237,32 +2237,32 @@
       <c r="F22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="39" t="s">
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="39">
-        <v>0</v>
-      </c>
-      <c r="R22" s="39">
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="26">
         <v>0</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="63"/>
+      <c r="U22" s="36"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="6">
         <v>6</v>
       </c>
@@ -2278,36 +2278,36 @@
       <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="39" t="s">
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="26" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="63"/>
+      <c r="U23" s="36"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="6">
         <v>7</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2319,338 +2319,338 @@
       <c r="F24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="40">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
-        <v>0</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0</v>
-      </c>
-      <c r="L24" s="40">
-        <v>0</v>
-      </c>
-      <c r="M24" s="40">
-        <v>0</v>
-      </c>
-      <c r="N24" s="40">
-        <v>0</v>
-      </c>
-      <c r="O24" s="40">
-        <v>0</v>
-      </c>
-      <c r="P24" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="39">
-        <v>0</v>
-      </c>
-      <c r="R24" s="39">
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0</v>
+      </c>
+      <c r="O24" s="27">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="63"/>
+      <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="63"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="36"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="63"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="36"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="63"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="36"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="33" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="80" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="63"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="36"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="82" t="s">
+      <c r="I29" s="49"/>
+      <c r="J29" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="78" t="s">
+      <c r="K29" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="78" t="s">
+      <c r="M29" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="82" t="s">
+      <c r="N29" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="O29" s="78" t="s">
+      <c r="O29" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="82" t="s">
+      <c r="P29" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="Q29" s="78" t="s">
+      <c r="Q29" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="R29" s="67"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="63"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="36"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="52" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="82" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="78" t="s">
+      <c r="K30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="M30" s="78" t="s">
+      <c r="M30" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="82" t="s">
+      <c r="N30" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="O30" s="78" t="s">
+      <c r="O30" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="82" t="s">
+      <c r="P30" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Q30" s="78" t="s">
+      <c r="Q30" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="63"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="36"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="55" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="63"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="63"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="36"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="63"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="87" t="s">
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="63"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="F35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="21" t="s">
         <v>97</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -2669,57 +2669,57 @@
       <c r="I35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="85" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="O35" s="68" t="s">
+      <c r="O35" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="60"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="33"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="52" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="O36" s="84" t="s">
+      <c r="O36" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="63"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="36"/>
     </row>
     <row r="37" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="10" t="s">
         <v>53</v>
       </c>
@@ -2744,20 +2744,20 @@
       <c r="L37" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="84" t="s">
+      <c r="M37" s="39"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="63"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="36"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="18">
         <v>1</v>
       </c>
@@ -2767,99 +2767,112 @@
       <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="23" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="63"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="36"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="71"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="63"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="36"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="63"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="36"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="65"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="N36:N37"/>
@@ -2875,20 +2888,7 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studio\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0991520-B349-4B98-8D3B-3AF8DC50C645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB38A9-B0C3-48F9-8438-0455DE7399E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27000" yWindow="4845" windowWidth="21600" windowHeight="11430" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
   <si>
     <t>Param1</t>
   </si>
@@ -725,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -850,6 +850,51 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,24 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,9 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,32 +931,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,41 +1253,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
@@ -1302,12 +1304,12 @@
       <c r="T1" s="34"/>
       <c r="U1" s="36"/>
     </row>
-    <row r="2" spans="1:21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1363,7 @@
       </c>
       <c r="U2" s="36"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -1418,7 +1420,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="36"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1475,7 +1477,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="36"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -1532,7 +1534,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -1589,7 +1591,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -1646,7 +1648,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" s="6">
         <v>6</v>
@@ -1703,7 +1705,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="22">
         <v>7</v>
@@ -1760,12 +1762,12 @@
       <c r="T9" s="3"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="37"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -1785,7 +1787,7 @@
       <c r="T10" s="34"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1808,13 +1810,13 @@
       <c r="T11" s="34"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="10" t="s">
         <v>53</v>
       </c>
@@ -1839,10 +1841,10 @@
       <c r="L12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="85"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
@@ -1851,7 +1853,7 @@
       <c r="T12" s="34"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="18">
         <v>1</v>
@@ -1862,11 +1864,11 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="63">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="69">
+        <v>0</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
@@ -1882,8 +1884,8 @@
       <c r="L13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="86"/>
-      <c r="N13" s="87"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -1892,7 +1894,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="36"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="18">
         <v>3</v>
@@ -1903,14 +1905,12 @@
       <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="E14" s="72">
+        <v>0</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="88" t="s">
         <v>77</v>
       </c>
       <c r="I14" s="15" t="s">
@@ -1939,7 +1939,7 @@
       <c r="T14" s="34"/>
       <c r="U14" s="36"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="18">
         <v>4</v>
@@ -1950,11 +1950,11 @@
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="66">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="E15" s="72">
+        <v>0</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="14" t="s">
         <v>85</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="T15" s="34"/>
       <c r="U15" s="36"/>
     </row>
-    <row r="16" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -2007,14 +2007,14 @@
       <c r="T16" s="35"/>
       <c r="U16" s="38"/>
     </row>
-    <row r="17" spans="1:21" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -2032,12 +2032,12 @@
       <c r="T17" s="34"/>
       <c r="U17" s="31"/>
     </row>
-    <row r="18" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="17" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="U18" s="36"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="18">
         <v>1</v>
@@ -2108,35 +2108,35 @@
       <c r="F19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79" t="s">
+      <c r="H19" s="61"/>
+      <c r="I19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="79" t="s">
+      <c r="J19" s="61"/>
+      <c r="K19" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="79" t="s">
+      <c r="L19" s="61"/>
+      <c r="M19" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79" t="s">
+      <c r="N19" s="61"/>
+      <c r="O19" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="61"/>
+      <c r="Q19" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="80"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="36"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="18">
         <v>3</v>
@@ -2153,10 +2153,10 @@
       <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="80"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -2171,7 +2171,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="36"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="18">
         <v>4</v>
@@ -2188,22 +2188,22 @@
       <c r="F21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="73" t="s">
+      <c r="H21" s="82"/>
+      <c r="I21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="73" t="s">
+      <c r="J21" s="82"/>
+      <c r="K21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="73" t="s">
+      <c r="L21" s="82"/>
+      <c r="M21" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="74"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="26" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="36"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="18">
         <v>5</v>
@@ -2237,14 +2237,14 @@
       <c r="F22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
       <c r="O22" s="26" t="s">
         <v>35</v>
       </c>
@@ -2261,7 +2261,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="36"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="6">
         <v>6</v>
@@ -2278,14 +2278,14 @@
       <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
       <c r="O23" s="26" t="s">
         <v>44</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="36"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="6">
         <v>7</v>
@@ -2359,12 +2359,12 @@
       <c r="T24" s="3"/>
       <c r="U24" s="36"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="37"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -2384,7 +2384,7 @@
       <c r="T25" s="34"/>
       <c r="U25" s="36"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -2407,7 +2407,7 @@
       <c r="T26" s="34"/>
       <c r="U26" s="36"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -2430,7 +2430,7 @@
       <c r="T27" s="34"/>
       <c r="U27" s="36"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -2457,7 +2457,7 @@
       <c r="T28" s="34"/>
       <c r="U28" s="36"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -2506,11 +2506,11 @@
       <c r="T29" s="52"/>
       <c r="U29" s="36"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="76" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="32" t="s">
@@ -2549,17 +2549,17 @@
       <c r="T30" s="34"/>
       <c r="U30" s="36"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
@@ -2574,7 +2574,7 @@
       <c r="T31" s="34"/>
       <c r="U31" s="36"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2597,7 +2597,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="36"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -2620,7 +2620,7 @@
       <c r="T33" s="34"/>
       <c r="U33" s="36"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -2647,7 +2647,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="36"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -2686,7 +2686,7 @@
       <c r="T35" s="50"/>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -2700,7 +2700,7 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="61" t="s">
+      <c r="N36" s="76" t="s">
         <v>133</v>
       </c>
       <c r="O36" s="56" t="s">
@@ -2713,13 +2713,13 @@
       <c r="T36" s="34"/>
       <c r="U36" s="36"/>
     </row>
-    <row r="37" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="10" t="s">
         <v>53</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>60</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="62"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="56" t="s">
         <v>135</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="36"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="18">
         <v>1</v>
@@ -2767,18 +2767,18 @@
       <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66" t="s">
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
       <c r="M38" s="55"/>
       <c r="N38" s="58"/>
       <c r="O38" s="34"/>
@@ -2789,7 +2789,7 @@
       <c r="T38" s="34"/>
       <c r="U38" s="36"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="18"/>
       <c r="C39" s="28"/>
@@ -2812,7 +2812,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="36"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="18"/>
       <c r="C40" s="28"/>
@@ -2835,7 +2835,7 @@
       <c r="T40" s="34"/>
       <c r="U40" s="36"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -2860,19 +2860,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="N36:N37"/>
@@ -2889,6 +2876,19 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0991520-B349-4B98-8D3B-3AF8DC50C645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D827E0-1FCE-4427-87FE-BD324BF4A51E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27000" yWindow="4845" windowWidth="21600" windowHeight="11430" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>1 = positive</t>
-  </si>
-  <si>
-    <t>0 = negative</t>
-  </si>
-  <si>
     <t>catesian jog</t>
   </si>
   <si>
@@ -442,6 +436,12 @@
   </si>
   <si>
     <t>2 : CRC fail</t>
+  </si>
+  <si>
+    <t>1 = negative</t>
+  </si>
+  <si>
+    <t>0 = positive</t>
   </si>
 </sst>
 </file>
@@ -850,6 +850,51 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,24 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,9 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,31 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,12 +1279,12 @@
   <sheetData>
     <row r="1" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
-      <c r="B1" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="2" spans="1:21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="82"/>
+      <c r="B2" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="63"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1376,7 +1376,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>22</v>
@@ -1433,7 +1433,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>27</v>
@@ -1709,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
@@ -1718,10 +1718,10 @@
         <v>48</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
-      <c r="B10" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="84"/>
+      <c r="B10" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="64"/>
       <c r="D10" s="37"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -1810,11 +1810,11 @@
     </row>
     <row r="12" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
-      <c r="B12" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="10" t="s">
         <v>53</v>
       </c>
@@ -1839,10 +1839,10 @@
       <c r="L12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="85"/>
+      <c r="M12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="65"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
@@ -1862,28 +1862,28 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="63">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="E13" s="69">
+        <v>0</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="86"/>
-      <c r="N13" s="87"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -1903,33 +1903,33 @@
       <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="68"/>
+      <c r="E14" s="72">
+        <v>0</v>
+      </c>
+      <c r="F14" s="74"/>
       <c r="G14" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="K14" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>62</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
@@ -1945,36 +1945,36 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="66">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+        <v>64</v>
+      </c>
+      <c r="E15" s="72">
+        <v>0</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="L15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
@@ -2009,12 +2009,12 @@
     </row>
     <row r="17" spans="1:21" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
-      <c r="B17" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="B17" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="18" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
-      <c r="B18" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="82"/>
+      <c r="B18" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="63"/>
       <c r="D18" s="17" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>21</v>
@@ -2106,32 +2106,32 @@
         <v>48</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="79" t="s">
+      <c r="N19" s="61"/>
+      <c r="O19" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="79" t="s">
+      <c r="P19" s="61"/>
+      <c r="Q19" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="80"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="36"/>
@@ -2148,15 +2148,15 @@
         <v>21</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="80"/>
+      <c r="G20" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="61"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -2183,27 +2183,27 @@
         <v>21</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="82"/>
+      <c r="I21" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="82"/>
+      <c r="K21" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="73" t="s">
+      <c r="L21" s="82"/>
+      <c r="M21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="74"/>
+      <c r="N21" s="82"/>
       <c r="O21" s="26" t="s">
         <v>35</v>
       </c>
@@ -2232,19 +2232,19 @@
         <v>21</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
       <c r="O22" s="26" t="s">
         <v>35</v>
       </c>
@@ -2273,19 +2273,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
       <c r="O23" s="26" t="s">
         <v>44</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>21</v>
@@ -2317,10 +2317,10 @@
         <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="27">
         <v>0</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
-      <c r="B25" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="83"/>
+      <c r="B25" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="87"/>
       <c r="D25" s="37"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -2435,7 +2435,7 @@
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -2443,7 +2443,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
@@ -2468,38 +2468,38 @@
         <v>50</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="M29" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="N29" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="54" t="s">
+      <c r="O29" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="Q29" s="51" t="s">
         <v>125</v>
-      </c>
-      <c r="P29" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29" s="51" t="s">
-        <v>127</v>
       </c>
       <c r="R29" s="40"/>
       <c r="S29" s="52"/>
@@ -2510,39 +2510,39 @@
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="61" t="s">
-        <v>105</v>
+      <c r="D30" s="76" t="s">
+        <v>103</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31"/>
       <c r="I30" s="34"/>
       <c r="J30" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="L30" s="54" t="s">
+      <c r="M30" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="O30" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="N30" s="54" t="s">
+      <c r="P30" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="Q30" s="51" t="s">
         <v>126</v>
-      </c>
-      <c r="P30" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" s="51" t="s">
-        <v>128</v>
       </c>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -2553,13 +2553,13 @@
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
@@ -2625,7 +2625,7 @@
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -2637,7 +2637,7 @@
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -2658,13 +2658,13 @@
         <v>49</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
@@ -2674,10 +2674,10 @@
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
       <c r="N35" s="57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O35" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
@@ -2700,11 +2700,11 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="61" t="s">
-        <v>133</v>
+      <c r="N36" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="O36" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
@@ -2715,11 +2715,11 @@
     </row>
     <row r="37" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
-      <c r="B37" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
+      <c r="B37" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="10" t="s">
         <v>53</v>
       </c>
@@ -2745,9 +2745,9 @@
         <v>60</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="62"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
@@ -2762,23 +2762,23 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
       <c r="M38" s="55"/>
       <c r="N38" s="58"/>
       <c r="O38" s="34"/>
@@ -2860,19 +2860,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="N36:N37"/>
@@ -2889,6 +2876,19 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D827E0-1FCE-4427-87FE-BD324BF4A51E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC9DF2-58D3-4AD1-9707-7BFEECA6B361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="160">
   <si>
     <t>Param1</t>
   </si>
@@ -111,36 +111,9 @@
     <t>num_joint/sign</t>
   </si>
   <si>
-    <t>abs_position_H</t>
-  </si>
-  <si>
-    <t>abs_position_L</t>
-  </si>
-  <si>
     <t>joint_signed</t>
   </si>
   <si>
-    <t>abs_pos_j1_H</t>
-  </si>
-  <si>
-    <t>abs_pos_j1_L</t>
-  </si>
-  <si>
-    <t>abs_pos_j3_H</t>
-  </si>
-  <si>
-    <t>abs_pos_j3_L</t>
-  </si>
-  <si>
-    <t>abs_pos_j2_H</t>
-  </si>
-  <si>
-    <t>abs_pos_j2_L</t>
-  </si>
-  <si>
-    <t>abs_pos_j4_H</t>
-  </si>
-  <si>
     <t>abs_pos_j4_L</t>
   </si>
   <si>
@@ -261,9 +234,6 @@
     <t>0x06</t>
   </si>
   <si>
-    <t>signed</t>
-  </si>
-  <si>
     <t>j1</t>
   </si>
   <si>
@@ -442,6 +412,108 @@
   </si>
   <si>
     <t>0 = positive</t>
+  </si>
+  <si>
+    <t>position_pluse_H</t>
+  </si>
+  <si>
+    <t>position_pulse_L</t>
+  </si>
+  <si>
+    <t>position_pluse_J1_H</t>
+  </si>
+  <si>
+    <t>position_pluse_J1_L</t>
+  </si>
+  <si>
+    <t>position_pluse_J2_H</t>
+  </si>
+  <si>
+    <t>position_pluse_J2_L</t>
+  </si>
+  <si>
+    <t>position_pluse_J3_H</t>
+  </si>
+  <si>
+    <t>position_pluse_J3_L</t>
+  </si>
+  <si>
+    <t>position_pluse_J4_H</t>
+  </si>
+  <si>
+    <t>position_pluse_J4_L</t>
+  </si>
+  <si>
+    <t>GRIPPER</t>
+  </si>
+  <si>
+    <t>data_6</t>
+  </si>
+  <si>
+    <t>data_7</t>
+  </si>
+  <si>
+    <t>Param13</t>
+  </si>
+  <si>
+    <t>Param14</t>
+  </si>
+  <si>
+    <t>Param15</t>
+  </si>
+  <si>
+    <t>Param16</t>
+  </si>
+  <si>
+    <t>Data_6</t>
+  </si>
+  <si>
+    <t>Data_7</t>
+  </si>
+  <si>
+    <t>Chessboard position</t>
+  </si>
+  <si>
+    <t>type_data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>Position_j1</t>
+  </si>
+  <si>
+    <t>Position_j2</t>
+  </si>
+  <si>
+    <t>Position_j3</t>
+  </si>
+  <si>
+    <t>Position_j4</t>
+  </si>
+  <si>
+    <t>gripper_status</t>
+  </si>
+  <si>
+    <t>gripper_value1</t>
+  </si>
+  <si>
+    <t>gripper_vale2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>gripper</t>
   </si>
 </sst>
 </file>
@@ -725,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,9 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,7 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -834,7 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,12 +920,84 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,71 +1007,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,51 +1368,57 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.44140625" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
     <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
     <col min="16" max="16" width="14.21875" customWidth="1"/>
     <col min="17" max="17" width="18.5546875" customWidth="1"/>
     <col min="18" max="18" width="14.21875" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="19" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="36"/>
-    </row>
-    <row r="2" spans="1:21" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="63"/>
+    <row r="1" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="34"/>
+    </row>
+    <row r="2" spans="1:26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="84"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1359,26 +1470,31 @@
       <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="34"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="5">
@@ -1416,10 +1532,15 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="36"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="34"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1429,11 +1550,11 @@
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>48</v>
+      <c r="E4" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1473,10 +1594,15 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="36"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1486,20 +1612,20 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>48</v>
+      <c r="E5" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -1530,10 +1656,15 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1543,38 +1674,38 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>48</v>
+      <c r="E6" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1587,10 +1718,15 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="36"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1600,38 +1736,38 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>48</v>
+      <c r="E7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1644,10 +1780,15 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="34"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1657,94 +1798,99 @@
       <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>48</v>
+      <c r="E8" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="Q8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="R8" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="36"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="22">
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="34"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>86</v>
+      <c r="C9" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+        <v>77</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
         <v>0</v>
       </c>
       <c r="P9" s="5">
@@ -1758,511 +1904,599 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="36"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="36"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="36"/>
-    </row>
-    <row r="12" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="36"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="18">
+      <c r="N12" s="86"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="17">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="69">
-        <v>0</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="36"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="18">
+        <v>59</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="17">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="17">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="67">
+        <v>0</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="34"/>
+    </row>
+    <row r="16" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="34"/>
+    </row>
+    <row r="18" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="U18" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="V18" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="34"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="94"/>
+      <c r="I19" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="94"/>
+      <c r="M19" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="94"/>
+      <c r="O19" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="72">
-        <v>0</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="36"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="72">
-        <v>0</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="36"/>
-    </row>
-    <row r="16" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="38"/>
-    </row>
-    <row r="17" spans="1:21" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="36"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="R19" s="61"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="36"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="18">
+      <c r="R19" s="94"/>
+      <c r="S19" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" s="96"/>
+      <c r="U19" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="V19" s="97"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="34"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="17">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="18">
+      <c r="E20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="34"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="17">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="82"/>
-      <c r="M21" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>0</v>
-      </c>
-      <c r="R21" s="26">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="36"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="18">
+      <c r="E21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="75"/>
+      <c r="K21" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="75"/>
+      <c r="M21" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="75"/>
+      <c r="O21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="34"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="17">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0</v>
-      </c>
-      <c r="R22" s="26">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="36"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="E22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="34"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
       <c r="B23" s="6">
         <v>6</v>
       </c>
@@ -2272,594 +2506,773 @@
       <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>102</v>
+      <c r="E23" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="36"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="26"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="34"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="6">
         <v>7</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>86</v>
+      <c r="C24" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0</v>
-      </c>
-      <c r="M24" s="27">
-        <v>0</v>
-      </c>
-      <c r="N24" s="27">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27">
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>0</v>
-      </c>
-      <c r="R24" s="26">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="36"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="36"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="36"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="36"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="36"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="34"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="34"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="34"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="34"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="34"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>109</v>
+      <c r="E29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="54" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="54" t="s">
+      <c r="N29" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" s="38"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W29" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="34"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="M29" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="N29" s="54" t="s">
+      <c r="N30" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="O29" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="P29" s="54" t="s">
+      <c r="P30" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="R29" s="40"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="36"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="P30" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="36"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="36"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="36"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="36"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="59" t="s">
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="V30" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W30" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="34"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="36"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="34"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="34"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="U34" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="V34" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W34" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="34"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>95</v>
+      <c r="E35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="33"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="O36" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="36"/>
-    </row>
-    <row r="37" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="66" t="s">
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="U35" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="V35" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W35" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="34"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="V36" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W36" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="34"/>
+    </row>
+    <row r="37" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
+      <c r="B37" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="37"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="34"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="39"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="36"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="36"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
+        <v>85</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="34"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="44"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="36"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="36"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="38"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="34"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="34"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="N36:N37"/>
@@ -2876,19 +3289,6 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC9DF2-58D3-4AD1-9707-7BFEECA6B361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96270517-1F79-4923-99E8-ECC644BCC263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
   <si>
     <t>Param1</t>
   </si>
@@ -444,9 +444,6 @@
     <t>position_pluse_J4_L</t>
   </si>
   <si>
-    <t>GRIPPER</t>
-  </si>
-  <si>
     <t>data_6</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>gripper</t>
   </si>
 </sst>
 </file>
@@ -797,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -825,8 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,6 +918,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,15 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -965,9 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,58 +1025,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,7 +1345,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,41 +1373,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="34"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1470,15 +1459,15 @@
       <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="34"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1494,7 +1483,7 @@
       <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="5">
@@ -1532,15 +1521,15 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="34"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +1539,7 @@
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1594,15 +1583,15 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="34"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1612,13 +1601,13 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1656,15 +1645,15 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="34"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1674,37 +1663,37 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="15" t="s">
         <v>135</v>
       </c>
       <c r="P6" s="5">
@@ -1718,15 +1707,15 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="34"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1736,37 +1725,37 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="15" t="s">
         <v>135</v>
       </c>
       <c r="P7" s="5">
@@ -1780,15 +1769,15 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="34"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -1798,7 +1787,7 @@
       <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1842,19 +1831,19 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="34"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="32"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="21">
+      <c r="A9" s="30"/>
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1866,31 +1855,31 @@
       <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="5">
@@ -1904,78 +1893,78 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="34"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="34"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="34"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="32"/>
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
@@ -2000,26 +1989,26 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="86"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="34"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="17">
+      <c r="A13" s="30"/>
+      <c r="B13" s="15">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2028,48 +2017,48 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="87"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="34"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="17">
+      <c r="A14" s="30"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2078,26 +2067,24 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="67">
-        <v>0</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="17" t="s">
         <v>53</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -2106,22 +2093,22 @@
       <c r="N14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="34"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="32"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="17">
+      <c r="A15" s="30"/>
+      <c r="B15" s="15">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2130,20 +2117,18 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="67">
-        <v>0</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="66">
+        <v>0</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -2158,345 +2143,345 @@
       <c r="N15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="34"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="36"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="34"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="83" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="59" t="s">
+      <c r="S18" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="T18" s="58" t="s">
+      <c r="U18" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="U18" s="89" t="s">
+      <c r="V18" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="V18" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="W18" s="59" t="s">
+      <c r="W18" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="X18" s="59" t="s">
+      <c r="X18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="34"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="17">
+      <c r="A19" s="30"/>
+      <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="93" t="s">
+      <c r="H19" s="78"/>
+      <c r="I19" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="93" t="s">
+      <c r="J19" s="78"/>
+      <c r="K19" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="94"/>
-      <c r="M19" s="93" t="s">
+      <c r="L19" s="78"/>
+      <c r="M19" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="94"/>
-      <c r="O19" s="93" t="s">
+      <c r="N19" s="78"/>
+      <c r="O19" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="93" t="s">
+      <c r="P19" s="78"/>
+      <c r="Q19" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="94"/>
-      <c r="S19" s="95" t="s">
+      <c r="R19" s="78"/>
+      <c r="S19" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="64"/>
+      <c r="U19" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="T19" s="96"/>
-      <c r="U19" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="V19" s="97"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="34"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="17">
+      <c r="A20" s="30"/>
+      <c r="B20" s="15">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="34"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="17">
+      <c r="A21" s="30"/>
+      <c r="B21" s="15">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="74" t="s">
+      <c r="H21" s="90"/>
+      <c r="I21" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="74" t="s">
+      <c r="J21" s="90"/>
+      <c r="K21" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="74" t="s">
+      <c r="L21" s="90"/>
+      <c r="M21" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="75"/>
-      <c r="O21" s="25" t="s">
+      <c r="N21" s="90"/>
+      <c r="O21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25">
-        <v>0</v>
-      </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="P21" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>0</v>
+      </c>
+      <c r="R21" s="23">
+        <v>0</v>
+      </c>
+      <c r="S21" s="23"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="34"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17">
+      <c r="A22" s="30"/>
+      <c r="B22" s="15">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="25" t="s">
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="P22" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>0</v>
+      </c>
+      <c r="R22" s="23">
+        <v>0</v>
+      </c>
+      <c r="S22" s="23"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="34"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="6">
         <v>6</v>
       </c>
@@ -2506,47 +2491,47 @@
       <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="25" t="s">
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="26"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="34"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="6">
         <v>7</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2558,457 +2543,457 @@
       <c r="F24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="26">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
-        <v>0</v>
-      </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0</v>
-      </c>
-      <c r="S24" s="26"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
+      <c r="H24" s="24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>0</v>
+      </c>
+      <c r="R24" s="23">
+        <v>0</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="34"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="82" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="34"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="34"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="34"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="23" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="50" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="V28" s="24" t="s">
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="W28" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="34"/>
+      <c r="V28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="W28" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="28" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="44" t="s">
         <v>99</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51" t="s">
+      <c r="I29" s="45"/>
+      <c r="J29" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="48" t="s">
+      <c r="Q29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="57" t="s">
+      <c r="R29" s="36"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="U29" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="V29" s="24" t="s">
+      <c r="U29" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="W29" s="24" t="s">
+      <c r="X29" s="47"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="32"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="34"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="N30" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="O30" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="P30" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q30" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="24" t="s">
+      <c r="V30" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W30" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="32"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="V30" s="24" t="s">
+      <c r="V31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W31" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="W30" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="34"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="U31" s="24" t="s">
+      <c r="X31" s="47"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="32"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="V31" s="24" t="s">
+      <c r="V32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W32" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="W31" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="34"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="U32" s="24" t="s">
+      <c r="X32" s="47"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="32"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="U33" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="V32" s="24" t="s">
+      <c r="V33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W33" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="34"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="U33" s="24" t="s">
+      <c r="X33" s="47"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="U34" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="V33" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="34"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="U34" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="V34" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="W34" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="34"/>
+      <c r="V34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W34" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="18" t="s">
         <v>85</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -3017,83 +3002,83 @@
       <c r="I35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="54" t="s">
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="57" t="s">
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="U35" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="V35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W35" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="32"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="U35" s="59" t="s">
+      <c r="U36" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="V35" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="W35" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="34"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="O36" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="U36" s="98" t="s">
+      <c r="V36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W36" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="V36" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="W36" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="34"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="32"/>
     </row>
     <row r="37" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="9" t="s">
         <v>44</v>
       </c>
@@ -3118,26 +3103,26 @@
       <c r="L37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="53" t="s">
+      <c r="M37" s="35"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="34"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="32"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="17">
+      <c r="A38" s="30"/>
+      <c r="B38" s="15">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3146,133 +3131,119 @@
       <c r="D38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67" t="s">
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="34"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="32"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="42"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="34"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="32"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="34"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="32"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="36"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="N36:N37"/>
@@ -3289,6 +3260,20 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96270517-1F79-4923-99E8-ECC644BCC263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B4E12-7095-4D02-8020-8A1DEC3ED1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="157">
   <si>
     <t>Param1</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>special byte</t>
-  </si>
-  <si>
-    <t>position of joint x (encoder value)</t>
   </si>
   <si>
     <t>position of joint 1 (encoder value)</t>
@@ -791,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,6 +926,72 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,18 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,70 +1013,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,12 +1365,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -1404,10 +1395,10 @@
     </row>
     <row r="2" spans="1:26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1611,10 +1602,10 @@
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -1673,28 +1664,28 @@
         <v>25</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1735,28 +1726,28 @@
         <v>25</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1902,10 +1893,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="33"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1960,11 +1951,11 @@
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1989,10 +1980,10 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="73"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
@@ -2036,13 +2027,13 @@
         <v>61</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
@@ -2067,11 +2058,11 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="79"/>
+      <c r="E14" s="69">
+        <v>0</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="12" t="s">
         <v>73</v>
       </c>
@@ -2088,10 +2079,10 @@
         <v>53</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
@@ -2117,11 +2108,11 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="66">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="79"/>
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="11" t="s">
         <v>73</v>
       </c>
@@ -2138,10 +2129,10 @@
         <v>72</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
@@ -2186,12 +2177,12 @@
     </row>
     <row r="17" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+      <c r="B17" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -2216,10 +2207,10 @@
     </row>
     <row r="18" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
@@ -2266,16 +2257,16 @@
         <v>14</v>
       </c>
       <c r="S18" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="U18" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="V18" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="V18" s="46" t="s">
-        <v>141</v>
       </c>
       <c r="W18" s="57" t="s">
         <v>15</v>
@@ -2303,38 +2294,38 @@
       <c r="F19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="77" t="s">
+      <c r="H19" s="83"/>
+      <c r="I19" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="77" t="s">
+      <c r="J19" s="83"/>
+      <c r="K19" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="78"/>
-      <c r="M19" s="77" t="s">
+      <c r="L19" s="83"/>
+      <c r="M19" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="78"/>
-      <c r="O19" s="77" t="s">
+      <c r="N19" s="83"/>
+      <c r="O19" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="77" t="s">
+      <c r="P19" s="83"/>
+      <c r="Q19" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="78"/>
-      <c r="S19" s="63" t="s">
+      <c r="R19" s="83"/>
+      <c r="S19" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="T19" s="64"/>
-      <c r="U19" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="V19" s="65"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="30"/>
@@ -2357,16 +2348,22 @@
       <c r="F20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="77"/>
+      <c r="K20" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="77"/>
+      <c r="M20" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="77"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
@@ -2392,27 +2389,19 @@
         <v>21</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="90"/>
-      <c r="M21" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="90"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="23" t="s">
         <v>26</v>
       </c>
@@ -2446,19 +2435,19 @@
         <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="92"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
       <c r="O22" s="23" t="s">
         <v>26</v>
       </c>
@@ -2492,19 +2481,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="94"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
       <c r="O23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2590,10 +2579,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="95"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2687,7 +2676,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
@@ -2700,13 +2689,13 @@
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X28" s="47"/>
       <c r="Y28" s="30"/>
@@ -2726,35 +2715,35 @@
         <v>82</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O29" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P29" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R29" s="36"/>
       <c r="S29" s="47"/>
@@ -2762,13 +2751,13 @@
         <v>75</v>
       </c>
       <c r="U29" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V29" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="W29" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="X29" s="47"/>
       <c r="Y29" s="30"/>
@@ -2778,39 +2767,39 @@
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
       <c r="I30" s="30"/>
       <c r="J30" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N30" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O30" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P30" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
@@ -2818,13 +2807,13 @@
         <v>57</v>
       </c>
       <c r="U30" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V30" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="W30" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="X30" s="47"/>
       <c r="Y30" s="30"/>
@@ -2834,13 +2823,13 @@
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
@@ -2856,13 +2845,13 @@
         <v>58</v>
       </c>
       <c r="U31" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V31" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W31" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="W31" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="X31" s="47"/>
       <c r="Y31" s="30"/>
@@ -2892,13 +2881,13 @@
         <v>59</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V32" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="W32" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="X32" s="47"/>
       <c r="Y32" s="30"/>
@@ -2928,13 +2917,13 @@
         <v>60</v>
       </c>
       <c r="U33" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V33" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W33" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="W33" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="X33" s="47"/>
       <c r="Y33" s="30"/>
@@ -2968,13 +2957,13 @@
         <v>61</v>
       </c>
       <c r="U34" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X34" s="47"/>
       <c r="Y34" s="30"/>
@@ -2997,7 +2986,7 @@
         <v>85</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
@@ -3007,26 +2996,26 @@
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
       <c r="N35" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>120</v>
       </c>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="47"/>
       <c r="S35" s="47"/>
       <c r="T35" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U35" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W35" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X35" s="47"/>
       <c r="Y35" s="30"/>
@@ -3046,27 +3035,27 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="81" t="s">
+      <c r="N36" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="O36" s="51" t="s">
-        <v>122</v>
       </c>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U36" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="V36" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="W36" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="V36" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="W36" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="X36" s="47"/>
       <c r="Y36" s="30"/>
@@ -3074,11 +3063,11 @@
     </row>
     <row r="37" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="9" t="s">
         <v>44</v>
       </c>
@@ -3104,9 +3093,9 @@
         <v>51</v>
       </c>
       <c r="M37" s="35"/>
-      <c r="N37" s="82"/>
+      <c r="N37" s="65"/>
       <c r="O37" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
@@ -3126,23 +3115,23 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="79"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="50"/>
       <c r="N38" s="53"/>
       <c r="O38" s="30"/>
@@ -3243,26 +3232,11 @@
       <c r="Z41" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="I21:J23"/>
-    <mergeCell ref="K21:L23"/>
-    <mergeCell ref="M21:N23"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B25:C25"/>
+  <mergeCells count="29">
+    <mergeCell ref="M20:N23"/>
+    <mergeCell ref="G20:H23"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="U19:V19"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="M12:N12"/>
@@ -3274,6 +3248,20 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I20:J23"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B4E12-7095-4D02-8020-8A1DEC3ED1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E25C8-A1D2-4DF8-9D17-4F973B361F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
@@ -926,6 +926,69 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,15 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -962,61 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,12 +1365,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="2" spans="1:26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="33"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1951,11 +1951,11 @@
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1980,10 +1980,10 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="91" t="s">
+      <c r="M12" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="91"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
@@ -2032,8 +2032,8 @@
       <c r="L13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
@@ -2058,11 +2058,11 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="69">
-        <v>0</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="81">
+        <v>0</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="12" t="s">
         <v>73</v>
       </c>
@@ -2108,11 +2108,11 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="69">
-        <v>0</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="11" t="s">
         <v>73</v>
       </c>
@@ -2177,12 +2177,12 @@
     </row>
     <row r="17" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="18" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
@@ -2294,38 +2294,38 @@
       <c r="F19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="82" t="s">
+      <c r="H19" s="80"/>
+      <c r="I19" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="82" t="s">
+      <c r="J19" s="80"/>
+      <c r="K19" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="82" t="s">
+      <c r="L19" s="80"/>
+      <c r="M19" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="83"/>
-      <c r="O19" s="82" t="s">
+      <c r="N19" s="80"/>
+      <c r="O19" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="82" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="83"/>
-      <c r="S19" s="85" t="s">
+      <c r="R19" s="80"/>
+      <c r="S19" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87" t="s">
+      <c r="T19" s="70"/>
+      <c r="U19" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="V19" s="87"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="30"/>
@@ -2348,22 +2348,22 @@
       <c r="F20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="76" t="s">
+      <c r="H20" s="64"/>
+      <c r="I20" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="76" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="76" t="s">
+      <c r="L20" s="64"/>
+      <c r="M20" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="N20" s="77"/>
+      <c r="N20" s="64"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
@@ -2394,14 +2394,14 @@
       <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="66"/>
       <c r="O21" s="23" t="s">
         <v>26</v>
       </c>
@@ -2440,14 +2440,14 @@
       <c r="F22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
       <c r="O22" s="23" t="s">
         <v>26</v>
       </c>
@@ -2486,14 +2486,14 @@
       <c r="F23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
       <c r="O23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2767,7 +2767,7 @@
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="85" t="s">
         <v>92</v>
       </c>
       <c r="E30" s="29" t="s">
@@ -2823,13 +2823,13 @@
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="72" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
@@ -3035,7 +3035,7 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="64" t="s">
+      <c r="N36" s="85" t="s">
         <v>120</v>
       </c>
       <c r="O36" s="51" t="s">
@@ -3063,11 +3063,11 @@
     </row>
     <row r="37" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="9" t="s">
         <v>44</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>51</v>
       </c>
       <c r="M37" s="35"/>
-      <c r="N37" s="65"/>
+      <c r="N37" s="86"/>
       <c r="O37" s="51" t="s">
         <v>122</v>
       </c>
@@ -3120,18 +3120,18 @@
       <c r="D38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="69" t="s">
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="71"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
       <c r="M38" s="50"/>
       <c r="N38" s="53"/>
       <c r="O38" s="30"/>
@@ -3233,6 +3233,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="M20:N23"/>
     <mergeCell ref="G20:H23"/>
     <mergeCell ref="S19:T19"/>
@@ -3249,19 +3262,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="I20:J23"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PROTOCOL.xlsx
+++ b/PROTOCOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Module8-9-G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E25C8-A1D2-4DF8-9D17-4F973B361F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12692008-A44F-462F-BA97-6D3F95A38D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0682010B-CC33-45C9-8DE5-E0BDC4292845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,6 +944,54 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,58 +1013,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5F891-B16F-42AC-96EE-2A8EB25FF4A2}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,12 +1365,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="2" spans="1:26" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="33"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -1951,11 +1951,11 @@
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1980,10 +1980,10 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="75"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
@@ -2032,8 +2032,8 @@
       <c r="L13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
@@ -2058,11 +2058,11 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="81">
-        <v>0</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="75">
+        <v>0</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="12" t="s">
         <v>73</v>
       </c>
@@ -2108,11 +2108,11 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="81">
-        <v>0</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
+      <c r="E15" s="75">
+        <v>0</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="11" t="s">
         <v>73</v>
       </c>
@@ -2177,12 +2177,12 @@
     </row>
     <row r="17" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="18" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
@@ -2294,38 +2294,38 @@
       <c r="F19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79" t="s">
+      <c r="H19" s="83"/>
+      <c r="I19" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="79" t="s">
+      <c r="J19" s="83"/>
+      <c r="K19" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="79" t="s">
+      <c r="L19" s="83"/>
+      <c r="M19" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79" t="s">
+      <c r="N19" s="83"/>
+      <c r="O19" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="83"/>
+      <c r="Q19" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="R19" s="80"/>
-      <c r="S19" s="69" t="s">
+      <c r="R19" s="83"/>
+      <c r="S19" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="T19" s="70"/>
-      <c r="U19" s="71" t="s">
+      <c r="T19" s="86"/>
+      <c r="U19" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="V19" s="71"/>
+      <c r="V19" s="87"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="30"/>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="33"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2767,7 +2767,7 @@
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="70" t="s">
         <v>92</v>
       </c>
       <c r="E30" s="29" t="s">
@@ -2823,13 +2823,13 @@
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="90" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
@@ -3035,7 +3035,7 @@
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="85" t="s">
+      <c r="N36" s="70" t="s">
         <v>120</v>
       </c>
       <c r="O36" s="51" t="s">
@@ -3063,11 +3063,11 @@
     </row>
     <row r="37" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
       <c r="E37" s="9" t="s">
         <v>44</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>51</v>
       </c>
       <c r="M37" s="35"/>
-      <c r="N37" s="86"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="51" t="s">
         <v>122</v>
       </c>
@@ -3120,18 +3120,18 @@
       <c r="D38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="81" t="s">
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="83"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="50"/>
       <c r="N38" s="53"/>
       <c r="O38" s="30"/>
@@ -3233,6 +3233,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="K20:L23"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B17:E17"/>
@@ -3248,19 +3261,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="M20:N23"/>
     <mergeCell ref="G20:H23"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="I20:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
